--- a/StructureDefinition-ext-R5-TestScript.variable.xlsx
+++ b/StructureDefinition-ext-R5-TestScript.variable.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
